--- a/res-ressources.xlsx
+++ b/res-ressources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leatr\Documents\Césure\Zenon\EnergyLimits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C9BA5-2ED7-4FB7-BC26-6AB341E90607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5FA8DA-8EC0-47EF-ACFE-836F078C3935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9468" yWindow="492" windowWidth="11364" windowHeight="11904" xr2:uid="{49E2F6A3-4129-4B40-9257-85945CE68318}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49E2F6A3-4129-4B40-9257-85945CE68318}"/>
   </bookViews>
   <sheets>
     <sheet name="Em" sheetId="1" r:id="rId1"/>
@@ -176,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +522,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +573,7 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>C2*D2</f>
         <v>12223840000</v>
       </c>
@@ -718,7 +725,7 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>36000000000</v>
       </c>
@@ -838,7 +845,7 @@
       <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>8410000000</v>
       </c>
@@ -886,7 +893,7 @@
       <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>2576000000</v>
       </c>
